--- a/MavenBook/src/test/resources/PurchaseBillData.xlsx
+++ b/MavenBook/src/test/resources/PurchaseBillData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseBillHeader" sheetId="1" r:id="rId1"/>
@@ -26,59 +26,59 @@
     <t>Item Quantity</t>
   </si>
   <si>
-    <t>Subject</t>
-  </si>
-  <si>
     <t>Test SI</t>
   </si>
   <si>
-    <t>Sales Person</t>
-  </si>
-  <si>
-    <t>Order Number</t>
-  </si>
-  <si>
     <t>Invoice Date</t>
   </si>
   <si>
     <t>Payment Terms</t>
   </si>
   <si>
-    <t>Supply Date</t>
-  </si>
-  <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Net 15</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Sales P1</t>
-  </si>
-  <si>
-    <t>10122025</t>
-  </si>
-  <si>
     <t>ReTest20</t>
   </si>
   <si>
     <t>Red Pen</t>
   </si>
   <si>
-    <t>031225</t>
-  </si>
-  <si>
-    <t>03122025</t>
+    <t>151225</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>Entry Date</t>
+  </si>
+  <si>
+    <t>Expected Delivery Date</t>
+  </si>
+  <si>
+    <t>Reference Number</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Automated one</t>
+  </si>
+  <si>
+    <t>BP Apparatus</t>
+  </si>
+  <si>
+    <t>Test S2</t>
+  </si>
+  <si>
+    <t>Net 30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,12 +93,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -129,23 +123,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -153,6 +141,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,252 +449,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="9" customWidth="1"/>
-    <col min="2" max="3" width="16" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="2" width="19.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>15122025</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6">
+        <v>22122025</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="6" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>15122025</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="D3" s="6">
+        <v>22122025</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -713,10 +645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,10 +671,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -750,16 +682,28 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MavenBook/src/test/resources/PurchaseBillData.xlsx
+++ b/MavenBook/src/test/resources/PurchaseBillData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Customer Name</t>
   </si>
@@ -26,27 +26,12 @@
     <t>Item Quantity</t>
   </si>
   <si>
-    <t>Test SI</t>
-  </si>
-  <si>
     <t>Invoice Date</t>
   </si>
   <si>
     <t>Payment Terms</t>
   </si>
   <si>
-    <t>Net 15</t>
-  </si>
-  <si>
-    <t>ReTest20</t>
-  </si>
-  <si>
-    <t>Red Pen</t>
-  </si>
-  <si>
-    <t>151225</t>
-  </si>
-  <si>
     <t>Vendor Name</t>
   </si>
   <si>
@@ -59,9 +44,6 @@
     <t>Reference Number</t>
   </si>
   <si>
-    <t>Banana</t>
-  </si>
-  <si>
     <t>Automated one</t>
   </si>
   <si>
@@ -72,6 +54,15 @@
   </si>
   <si>
     <t>Net 30</t>
+  </si>
+  <si>
+    <t>23-12-2025</t>
+  </si>
+  <si>
+    <t>24-12-2025</t>
+  </si>
+  <si>
+    <t>30-12-2025</t>
   </si>
 </sst>
 </file>
@@ -123,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -144,6 +135,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,17 +446,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="21.140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" style="6" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="6"/>
@@ -467,175 +464,51 @@
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>15122025</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6">
-        <v>22122025</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>15122025</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6">
-        <v>22122025</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -645,10 +518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,36 +543,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
